--- a/ExcelReport.xlsx
+++ b/ExcelReport.xlsx
@@ -43,7 +43,7 @@
     <t>failure</t>
   </si>
   <si>
-    <t>8f081b57-298c-4a5c-b6eb-1bf151af7277</t>
+    <t>4b8bb69d-c49e-4969-97de-bd37c7e54154</t>
   </si>
   <si>
     <t>Restful Booker API Testing</t>
@@ -67,7 +67,7 @@
     <t/>
   </si>
   <si>
-    <t>0ea27d0c-c24a-4879-9ee0-8c1b06c79f40</t>
+    <t>7b6bc1a8-ff8e-4e3f-9aed-370a3c275b07</t>
   </si>
   <si>
     <t>Create Booking - Negative Test (Invalid Details)</t>
@@ -79,7 +79,7 @@
     <t>["I have incomplete or invalid booking details","I send a POST request to '/booking' with  negative details","I should receive an error code and a message indicating what was wrong"]</t>
   </si>
   <si>
-    <t>b2b17dfe-fb34-4281-b6a5-7b9185433ac8</t>
+    <t>3aac4ac8-3e23-4215-bd2c-0e779c900d4b</t>
   </si>
   <si>
     <t>Retrieve Booking - Positive Test</t>
@@ -88,7 +88,7 @@
     <t>["a booking with a known id exists get book by id","I send a GET request to '/booking/{id}'","I should receive a successful status code and the booking details get"]</t>
   </si>
   <si>
-    <t>fcef5483-efcd-431d-a3e9-201f97bbeab6</t>
+    <t>209b0bc8-419f-4ac2-8528-8225a9677c25</t>
   </si>
   <si>
     <t>Retrieve Booking - Negative Test (Non-existent ID)</t>
@@ -97,7 +97,7 @@
     <t>["a booking with a known id does not exist","I send a GET request to '/booking/{id}' with wrong id","I should receive a not found status code"]</t>
   </si>
   <si>
-    <t>d5cd24ab-ebaa-4e0c-9859-9ddd183d8415</t>
+    <t>af23e160-1c1c-48b0-84c2-30bfb5913251</t>
   </si>
   <si>
     <t>Update Booking - Positive Test</t>
@@ -106,7 +106,7 @@
     <t>["a booking with a known id exists and I have valid new booking details","I send a PUT request to '/booking/{id}' with the new details","I should receive a successful status code and the updated booking details"]</t>
   </si>
   <si>
-    <t>9f2e02b7-05d5-4e5a-9a39-60b13d90487b</t>
+    <t>1b39e843-2837-4386-afe7-471973bd0eb6</t>
   </si>
   <si>
     <t>Update Booking - Negative Test (Non-existent ID)</t>
@@ -115,7 +115,7 @@
     <t>["I send a PUT request to '/booking/{id}' wrong id","I should receive a Method Not Allowed status code"]</t>
   </si>
   <si>
-    <t>c6cca53b-54b7-4941-8465-b5331e50136e</t>
+    <t>1201d239-66f2-4d87-a8fa-b1a4753b8f2f</t>
   </si>
   <si>
     <t>Delete Booking - Positive Test</t>
@@ -124,7 +124,7 @@
     <t>["a booking with a known id exists THEN send a DELETE request to '/booking/{id}'","I should receive a successful status code indicating the booking was deleted"]</t>
   </si>
   <si>
-    <t>f07914c6-465e-4ee7-9d68-7b59f055132f</t>
+    <t>52c90581-d1b2-42ca-a0ea-967f790d9167</t>
   </si>
   <si>
     <t>Authentication - Positive Test</t>
@@ -133,7 +133,7 @@
     <t>["I have valid credentials","I use them to authenticate for a secured endpoint","I should receive a token and access the secured functionality"]</t>
   </si>
   <si>
-    <t>9df52308-1412-45d5-9d3a-d968bc705499</t>
+    <t>9a290d3b-bd43-4a95-a8e7-c588e9ab2d79</t>
   </si>
   <si>
     <t>General Server Down Test</t>
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>626351209</v>
+        <v>639704750</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>709417</v>
+        <v>656875</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="H4">
-        <v>713874</v>
+        <v>802750</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="H5">
-        <v>844125</v>
+        <v>805374</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="H6">
-        <v>706833</v>
+        <v>509417</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <v>665700291</v>
+        <v>669217999</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="H8">
-        <v>558590708</v>
+        <v>568862790</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="H9">
-        <v>558125</v>
+        <v>530375</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="H10">
-        <v>671985958</v>
+        <v>565353417</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
